--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Accounting/eFMS.API.Accounting/Resources/Files/OBHPaymentImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Accounting/eFMS.API.Accounting/Resources/Files/OBHPaymentImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Data\BA Project\Gitlab\eFMS\Tempate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern.lth007\Desktop\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.Accounting\eFMS.API.Accounting\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -118,12 +118,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,25 +409,25 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -444,11 +446,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -465,11 +467,11 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Accounting/eFMS.API.Accounting/Resources/Files/OBHPaymentImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Accounting/eFMS.API.Accounting/Resources/Files/OBHPaymentImportTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern.lth007\Desktop\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.Accounting\eFMS.API.Accounting\Resources\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny.thuong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t xml:space="preserve"> Partner Name</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>SOA No *</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Currency*</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>VND</t>
   </si>
 </sst>
 </file>
@@ -406,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,13 +432,13 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="4" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -437,16 +452,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -459,15 +483,24 @@
       <c r="D2" s="3">
         <v>2500000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4">
         <v>43999</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -480,17 +513,26 @@
       <c r="D3" s="3">
         <v>2500000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
         <v>43999</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
       <formula1>"Normal, Net Off"</formula1>
     </dataValidation>
   </dataValidations>
